--- a/natmiOut/OldD0/LR-pairs_lrc2p/Arf1-Chrm3.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Arf1-Chrm3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>67.4185952094054</v>
+        <v>77.63718533333333</v>
       </c>
       <c r="H2">
-        <v>67.4185952094054</v>
+        <v>232.911556</v>
       </c>
       <c r="I2">
-        <v>0.4180110616735474</v>
+        <v>0.4513549673384918</v>
       </c>
       <c r="J2">
-        <v>0.4180110616735474</v>
+        <v>0.4513549673384918</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.908011255098444</v>
+        <v>2.425673333333334</v>
       </c>
       <c r="N2">
-        <v>0.908011255098444</v>
+        <v>7.27702</v>
       </c>
       <c r="O2">
-        <v>0.6413183574602287</v>
+        <v>0.6040766302760682</v>
       </c>
       <c r="P2">
-        <v>0.6413183574602287</v>
+        <v>0.6040766302760682</v>
       </c>
       <c r="Q2">
-        <v>61.21684325306614</v>
+        <v>188.3224501381245</v>
       </c>
       <c r="R2">
-        <v>61.21684325306614</v>
+        <v>1694.90205124312</v>
       </c>
       <c r="S2">
-        <v>0.2680781674726858</v>
+        <v>0.272652987728201</v>
       </c>
       <c r="T2">
-        <v>0.2680781674726858</v>
+        <v>0.2726529877282009</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>67.4185952094054</v>
+        <v>77.63718533333333</v>
       </c>
       <c r="H3">
-        <v>67.4185952094054</v>
+        <v>232.911556</v>
       </c>
       <c r="I3">
-        <v>0.4180110616735474</v>
+        <v>0.4513549673384918</v>
       </c>
       <c r="J3">
-        <v>0.4180110616735474</v>
+        <v>0.4513549673384918</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.5078397719864221</v>
+        <v>0.9912810000000002</v>
       </c>
       <c r="N3">
-        <v>0.5078397719864221</v>
+        <v>2.973843</v>
       </c>
       <c r="O3">
-        <v>0.3586816425397714</v>
+        <v>0.2468632844777222</v>
       </c>
       <c r="P3">
-        <v>0.3586816425397714</v>
+        <v>0.2468632844777221</v>
       </c>
       <c r="Q3">
-        <v>34.23784401878932</v>
+        <v>76.96026671441201</v>
       </c>
       <c r="R3">
-        <v>34.23784401878932</v>
+        <v>692.6424004297081</v>
       </c>
       <c r="S3">
-        <v>0.1499328942008616</v>
+        <v>0.1114229697025151</v>
       </c>
       <c r="T3">
-        <v>0.1499328942008616</v>
+        <v>0.1114229697025151</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>62.2564189850491</v>
+        <v>77.63718533333333</v>
       </c>
       <c r="H4">
-        <v>62.2564189850491</v>
+        <v>232.911556</v>
       </c>
       <c r="I4">
-        <v>0.3860043614836852</v>
+        <v>0.4513549673384918</v>
       </c>
       <c r="J4">
-        <v>0.3860043614836852</v>
+        <v>0.4513549673384918</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.908011255098444</v>
+        <v>0.5985516666666667</v>
       </c>
       <c r="N4">
-        <v>0.908011255098444</v>
+        <v>1.795655</v>
       </c>
       <c r="O4">
-        <v>0.6413183574602287</v>
+        <v>0.1490600852462097</v>
       </c>
       <c r="P4">
-        <v>0.6413183574602287</v>
+        <v>0.1490600852462097</v>
       </c>
       <c r="Q4">
-        <v>56.52952914054904</v>
+        <v>46.46986667657556</v>
       </c>
       <c r="R4">
-        <v>56.52952914054904</v>
+        <v>418.22880008918</v>
       </c>
       <c r="S4">
-        <v>0.2475516830792013</v>
+        <v>0.0672790099077758</v>
       </c>
       <c r="T4">
-        <v>0.2475516830792013</v>
+        <v>0.0672790099077758</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>62.2564189850491</v>
+        <v>62.40815866666667</v>
       </c>
       <c r="H5">
-        <v>62.2564189850491</v>
+        <v>187.224476</v>
       </c>
       <c r="I5">
-        <v>0.3860043614836852</v>
+        <v>0.3628188257432201</v>
       </c>
       <c r="J5">
-        <v>0.3860043614836852</v>
+        <v>0.3628188257432201</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.5078397719864221</v>
+        <v>2.425673333333334</v>
       </c>
       <c r="N5">
-        <v>0.5078397719864221</v>
+        <v>7.27702</v>
       </c>
       <c r="O5">
-        <v>0.3586816425397714</v>
+        <v>0.6040766302760682</v>
       </c>
       <c r="P5">
-        <v>0.3586816425397714</v>
+        <v>0.6040766302760682</v>
       </c>
       <c r="Q5">
-        <v>31.61628562205849</v>
+        <v>151.3818062601689</v>
       </c>
       <c r="R5">
-        <v>31.61628562205849</v>
+        <v>1362.43625634152</v>
       </c>
       <c r="S5">
-        <v>0.1384526784044839</v>
+        <v>0.2191703736556844</v>
       </c>
       <c r="T5">
-        <v>0.1384526784044839</v>
+        <v>0.2191703736556844</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>31.6092229725922</v>
+        <v>62.40815866666667</v>
       </c>
       <c r="H6">
-        <v>31.6092229725922</v>
+        <v>187.224476</v>
       </c>
       <c r="I6">
-        <v>0.1959845768427675</v>
+        <v>0.3628188257432201</v>
       </c>
       <c r="J6">
-        <v>0.1959845768427675</v>
+        <v>0.3628188257432201</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.908011255098444</v>
+        <v>0.9912810000000002</v>
       </c>
       <c r="N6">
-        <v>0.908011255098444</v>
+        <v>2.973843</v>
       </c>
       <c r="O6">
-        <v>0.6413183574602287</v>
+        <v>0.2468632844777222</v>
       </c>
       <c r="P6">
-        <v>0.6413183574602287</v>
+        <v>0.2468632844777221</v>
       </c>
       <c r="Q6">
-        <v>28.70153022403001</v>
+        <v>61.86402193125202</v>
       </c>
       <c r="R6">
-        <v>28.70153022403001</v>
+        <v>556.7761973812682</v>
       </c>
       <c r="S6">
-        <v>0.1256885069083416</v>
+        <v>0.08956664699332165</v>
       </c>
       <c r="T6">
-        <v>0.1256885069083416</v>
+        <v>0.08956664699332163</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>31.6092229725922</v>
+        <v>62.40815866666667</v>
       </c>
       <c r="H7">
-        <v>31.6092229725922</v>
+        <v>187.224476</v>
       </c>
       <c r="I7">
-        <v>0.1959845768427675</v>
+        <v>0.3628188257432201</v>
       </c>
       <c r="J7">
-        <v>0.1959845768427675</v>
+        <v>0.3628188257432201</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.5078397719864221</v>
+        <v>0.5985516666666667</v>
       </c>
       <c r="N7">
-        <v>0.5078397719864221</v>
+        <v>1.795655</v>
       </c>
       <c r="O7">
-        <v>0.3586816425397714</v>
+        <v>0.1490600852462097</v>
       </c>
       <c r="P7">
-        <v>0.3586816425397714</v>
+        <v>0.1490600852462097</v>
       </c>
       <c r="Q7">
-        <v>16.0524205870692</v>
+        <v>37.35450738353111</v>
       </c>
       <c r="R7">
-        <v>16.0524205870692</v>
+        <v>336.19056645178</v>
       </c>
       <c r="S7">
-        <v>0.07029606993442589</v>
+        <v>0.0540818050942141</v>
       </c>
       <c r="T7">
-        <v>0.07029606993442589</v>
+        <v>0.0540818050942141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>31.96380833333333</v>
+      </c>
+      <c r="H8">
+        <v>95.891425</v>
+      </c>
+      <c r="I8">
+        <v>0.1858262069182881</v>
+      </c>
+      <c r="J8">
+        <v>0.1858262069182881</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>2.425673333333334</v>
+      </c>
+      <c r="N8">
+        <v>7.27702</v>
+      </c>
+      <c r="O8">
+        <v>0.6040766302760682</v>
+      </c>
+      <c r="P8">
+        <v>0.6040766302760682</v>
+      </c>
+      <c r="Q8">
+        <v>77.53375750594445</v>
+      </c>
+      <c r="R8">
+        <v>697.8038175535</v>
+      </c>
+      <c r="S8">
+        <v>0.1122532688921828</v>
+      </c>
+      <c r="T8">
+        <v>0.1122532688921828</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>31.96380833333333</v>
+      </c>
+      <c r="H9">
+        <v>95.891425</v>
+      </c>
+      <c r="I9">
+        <v>0.1858262069182881</v>
+      </c>
+      <c r="J9">
+        <v>0.1858262069182881</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.9912810000000002</v>
+      </c>
+      <c r="N9">
+        <v>2.973843</v>
+      </c>
+      <c r="O9">
+        <v>0.2468632844777222</v>
+      </c>
+      <c r="P9">
+        <v>0.2468632844777221</v>
+      </c>
+      <c r="Q9">
+        <v>31.68511588847501</v>
+      </c>
+      <c r="R9">
+        <v>285.1660429962751</v>
+      </c>
+      <c r="S9">
+        <v>0.04587366778188541</v>
+      </c>
+      <c r="T9">
+        <v>0.0458736677818854</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>31.96380833333333</v>
+      </c>
+      <c r="H10">
+        <v>95.891425</v>
+      </c>
+      <c r="I10">
+        <v>0.1858262069182881</v>
+      </c>
+      <c r="J10">
+        <v>0.1858262069182881</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.5985516666666667</v>
+      </c>
+      <c r="N10">
+        <v>1.795655</v>
+      </c>
+      <c r="O10">
+        <v>0.1490600852462097</v>
+      </c>
+      <c r="P10">
+        <v>0.1490600852462097</v>
+      </c>
+      <c r="Q10">
+        <v>19.13199075093056</v>
+      </c>
+      <c r="R10">
+        <v>172.187916758375</v>
+      </c>
+      <c r="S10">
+        <v>0.02769927024421983</v>
+      </c>
+      <c r="T10">
+        <v>0.02769927024421983</v>
       </c>
     </row>
   </sheetData>
